--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -837,21 +837,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,21 +862,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
+          <t>GEO Zone</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,65 +896,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>GEO Zone</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>The target area is in an Altitude Zone</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3-10</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -837,21 +837,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,21 +862,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GEO Zone</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,15 +896,65 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0-10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GEO Zone</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>3-10</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>False</t>
         </is>
